--- a/projects/psp/refined_data/mem_type_graph.xlsx
+++ b/projects/psp/refined_data/mem_type_graph.xlsx
@@ -4,16 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="1120" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="8080" yWindow="1580" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="jvb_pivot.csv (2)" sheetId="3" r:id="rId1"/>
     <sheet name="mem_type_pivot.csv" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -165,6 +161,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2800"/>
+              <a:t>PPP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800"/>
               <a:t>Membership</a:t>
             </a:r>
             <a:r>
@@ -269,7 +273,7 @@
                   <c:v>6129.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7744.0</c:v>
+                  <c:v>5201.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -345,7 +349,7 @@
                   <c:v>1085.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>169.0</c:v>
+                  <c:v>1060.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -421,7 +425,7 @@
                   <c:v>269.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0</c:v>
+                  <c:v>277.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -497,7 +501,7 @@
                   <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,7 +577,7 @@
                   <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,12 +593,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-2147060648"/>
-        <c:axId val="-2146742952"/>
+        <c:axId val="2144635800"/>
+        <c:axId val="2144639208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2147060648"/>
+        <c:axId val="2144635800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,7 +618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146742952"/>
+        <c:crossAx val="2144639208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -622,7 +626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146742952"/>
+        <c:axId val="2144639208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,7 +637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147060648"/>
+        <c:crossAx val="2144635800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -669,16 +673,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -700,534 +704,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="google"/>
-      <sheetName val="google.csv"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Jan</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Feb</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Mar</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Apr</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>May</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Jun</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Jul</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>Aug</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Sep</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>Oct</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>Nov</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>Dec</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>183</v>
-          </cell>
-          <cell r="C2">
-            <v>156</v>
-          </cell>
-          <cell r="D2">
-            <v>149</v>
-          </cell>
-          <cell r="E2">
-            <v>165</v>
-          </cell>
-          <cell r="F2">
-            <v>169</v>
-          </cell>
-          <cell r="G2">
-            <v>172</v>
-          </cell>
-          <cell r="H2">
-            <v>154</v>
-          </cell>
-          <cell r="I2">
-            <v>175</v>
-          </cell>
-          <cell r="J2">
-            <v>145</v>
-          </cell>
-          <cell r="K2">
-            <v>153</v>
-          </cell>
-          <cell r="L2">
-            <v>130</v>
-          </cell>
-          <cell r="M2">
-            <v>107</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>180</v>
-          </cell>
-          <cell r="C3">
-            <v>151</v>
-          </cell>
-          <cell r="D3">
-            <v>193</v>
-          </cell>
-          <cell r="E3">
-            <v>172</v>
-          </cell>
-          <cell r="F3">
-            <v>162</v>
-          </cell>
-          <cell r="G3">
-            <v>182</v>
-          </cell>
-          <cell r="H3">
-            <v>192</v>
-          </cell>
-          <cell r="I3">
-            <v>191</v>
-          </cell>
-          <cell r="J3">
-            <v>173</v>
-          </cell>
-          <cell r="K3">
-            <v>147</v>
-          </cell>
-          <cell r="L3">
-            <v>131</v>
-          </cell>
-          <cell r="M3">
-            <v>114</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>194</v>
-          </cell>
-          <cell r="C4">
-            <v>129</v>
-          </cell>
-          <cell r="D4">
-            <v>150</v>
-          </cell>
-          <cell r="E4">
-            <v>149</v>
-          </cell>
-          <cell r="F4">
-            <v>147</v>
-          </cell>
-          <cell r="G4">
-            <v>156</v>
-          </cell>
-          <cell r="H4">
-            <v>167</v>
-          </cell>
-          <cell r="I4">
-            <v>147</v>
-          </cell>
-          <cell r="J4">
-            <v>131</v>
-          </cell>
-          <cell r="K4">
-            <v>131</v>
-          </cell>
-          <cell r="L4">
-            <v>103</v>
-          </cell>
-          <cell r="M4">
-            <v>102</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>171</v>
-          </cell>
-          <cell r="C5">
-            <v>144</v>
-          </cell>
-          <cell r="D5">
-            <v>120</v>
-          </cell>
-          <cell r="E5">
-            <v>126</v>
-          </cell>
-          <cell r="F5">
-            <v>164</v>
-          </cell>
-          <cell r="G5">
-            <v>171</v>
-          </cell>
-          <cell r="H5">
-            <v>181</v>
-          </cell>
-          <cell r="I5">
-            <v>172</v>
-          </cell>
-          <cell r="J5">
-            <v>167</v>
-          </cell>
-          <cell r="K5">
-            <v>140</v>
-          </cell>
-          <cell r="L5">
-            <v>136</v>
-          </cell>
-          <cell r="M5">
-            <v>103</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>189</v>
-          </cell>
-          <cell r="C6">
-            <v>142</v>
-          </cell>
-          <cell r="D6">
-            <v>164</v>
-          </cell>
-          <cell r="E6">
-            <v>133</v>
-          </cell>
-          <cell r="F6">
-            <v>142</v>
-          </cell>
-          <cell r="G6">
-            <v>154</v>
-          </cell>
-          <cell r="H6">
-            <v>201</v>
-          </cell>
-          <cell r="I6">
-            <v>188</v>
-          </cell>
-          <cell r="J6">
-            <v>156</v>
-          </cell>
-          <cell r="K6">
-            <v>173</v>
-          </cell>
-          <cell r="L6">
-            <v>115</v>
-          </cell>
-          <cell r="M6">
-            <v>115</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>205</v>
-          </cell>
-          <cell r="C7">
-            <v>154</v>
-          </cell>
-          <cell r="D7">
-            <v>165</v>
-          </cell>
-          <cell r="E7">
-            <v>157</v>
-          </cell>
-          <cell r="F7">
-            <v>136</v>
-          </cell>
-          <cell r="G7">
-            <v>179</v>
-          </cell>
-          <cell r="H7">
-            <v>193</v>
-          </cell>
-          <cell r="I7">
-            <v>198</v>
-          </cell>
-          <cell r="J7">
-            <v>178</v>
-          </cell>
-          <cell r="K7">
-            <v>164</v>
-          </cell>
-          <cell r="L7">
-            <v>112</v>
-          </cell>
-          <cell r="M7">
-            <v>132</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>93</v>
-          </cell>
-          <cell r="C8">
-            <v>17</v>
-          </cell>
-          <cell r="D8">
-            <v>55</v>
-          </cell>
-          <cell r="E8">
-            <v>125</v>
-          </cell>
-          <cell r="F8">
-            <v>148</v>
-          </cell>
-          <cell r="G8">
-            <v>167</v>
-          </cell>
-          <cell r="H8">
-            <v>149</v>
-          </cell>
-          <cell r="I8">
-            <v>26</v>
-          </cell>
-          <cell r="J8">
-            <v>13</v>
-          </cell>
-          <cell r="K8">
-            <v>47</v>
-          </cell>
-          <cell r="L8">
-            <v>82</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>187</v>
-          </cell>
-          <cell r="C9">
-            <v>146</v>
-          </cell>
-          <cell r="D9">
-            <v>156.83333333333334</v>
-          </cell>
-          <cell r="E9">
-            <v>150.33333333333334</v>
-          </cell>
-          <cell r="F9">
-            <v>153.33333333333334</v>
-          </cell>
-          <cell r="G9">
-            <v>169</v>
-          </cell>
-          <cell r="H9">
-            <v>181.33333333333334</v>
-          </cell>
-          <cell r="I9">
-            <v>178.5</v>
-          </cell>
-          <cell r="J9">
-            <v>158.33333333333334</v>
-          </cell>
-          <cell r="K9">
-            <v>151.33333333333334</v>
-          </cell>
-          <cell r="L9">
-            <v>121.16666666666667</v>
-          </cell>
-          <cell r="M9">
-            <v>112.16666666666667</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="jvb_pivot.csv (2)"/>
-      <sheetName val="jvb_pivot.csv"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Still Due</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>&lt; 1 Year Old</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>1-2 Years Old</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>3-5 Years Old</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>&gt; 5 Years Old</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2010</v>
-          </cell>
-          <cell r="B2">
-            <v>434</v>
-          </cell>
-          <cell r="C2">
-            <v>68</v>
-          </cell>
-          <cell r="D2">
-            <v>165</v>
-          </cell>
-          <cell r="E2">
-            <v>223</v>
-          </cell>
-          <cell r="F2">
-            <v>392</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2011</v>
-          </cell>
-          <cell r="B3">
-            <v>595</v>
-          </cell>
-          <cell r="C3">
-            <v>107</v>
-          </cell>
-          <cell r="D3">
-            <v>154</v>
-          </cell>
-          <cell r="E3">
-            <v>213</v>
-          </cell>
-          <cell r="F3">
-            <v>381</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2012</v>
-          </cell>
-          <cell r="B4">
-            <v>565</v>
-          </cell>
-          <cell r="C4">
-            <v>90</v>
-          </cell>
-          <cell r="D4">
-            <v>137</v>
-          </cell>
-          <cell r="E4">
-            <v>179</v>
-          </cell>
-          <cell r="F4">
-            <v>300</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2013</v>
-          </cell>
-          <cell r="B5">
-            <v>672</v>
-          </cell>
-          <cell r="C5">
-            <v>114</v>
-          </cell>
-          <cell r="D5">
-            <v>123</v>
-          </cell>
-          <cell r="E5">
-            <v>157</v>
-          </cell>
-          <cell r="F5">
-            <v>312</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2014</v>
-          </cell>
-          <cell r="B6">
-            <v>718</v>
-          </cell>
-          <cell r="C6">
-            <v>100</v>
-          </cell>
-          <cell r="D6">
-            <v>134</v>
-          </cell>
-          <cell r="E6">
-            <v>143</v>
-          </cell>
-          <cell r="F6">
-            <v>320</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2015</v>
-          </cell>
-          <cell r="B7">
-            <v>767</v>
-          </cell>
-          <cell r="C7">
-            <v>116</v>
-          </cell>
-          <cell r="D7">
-            <v>138</v>
-          </cell>
-          <cell r="E7">
-            <v>151</v>
-          </cell>
-          <cell r="F7">
-            <v>299</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2016</v>
-          </cell>
-          <cell r="B8">
-            <v>396</v>
-          </cell>
-          <cell r="C8">
-            <v>62</v>
-          </cell>
-          <cell r="D8">
-            <v>55</v>
-          </cell>
-          <cell r="E8">
-            <v>63</v>
-          </cell>
-          <cell r="F8">
-            <v>118</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1555,7 +1031,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1729,23 +1205,23 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>7744</v>
+        <v>5201</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>1060</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>7922</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1904,23 +1380,23 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="2"/>
-        <v>0.97753092653370366</v>
+        <v>0.78140024038461542</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="2"/>
-        <v>2.1332996718000506E-2</v>
+        <v>0.15925480769230768</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>1.1360767482958849E-3</v>
+        <v>4.1616586538461536E-2</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4272836538461538E-2</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.455528846153846E-3</v>
       </c>
     </row>
   </sheetData>
